--- a/07. Project Office/Project Plan.xlsx
+++ b/07. Project Office/Project Plan.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\automated-attendance-system\07. Project Office\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\63915\Documents\GitHub\automated-attendance-system\automated-attendance-system\07. Project Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F2415D-1F2A-45CE-9979-8FAF106E661E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8409B496-485D-4E35-B7DB-65C1419E65AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Plan" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -916,26 +916,26 @@
   </sheetPr>
   <dimension ref="A1:AC36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="5" max="5" width="28.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="22.5546875" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" ht="15.6">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -968,7 +968,7 @@
       <c r="AB1" s="12"/>
       <c r="AC1" s="12"/>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" ht="15.6">
       <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
@@ -988,7 +988,7 @@
       <c r="J2" s="20"/>
       <c r="K2" s="27" t="str">
         <f>"Task Done: "&amp;COUNTIF(L:L,"Done")&amp;"/"&amp;COUNTA(L:L)-1</f>
-        <v>Task Done: 11/32</v>
+        <v>Task Done: 13/32</v>
       </c>
       <c r="L2" s="28"/>
       <c r="M2" s="12"/>
@@ -1009,7 +1009,7 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
     </row>
-    <row r="3" spans="1:29" ht="12.75">
+    <row r="3" spans="1:29" ht="13.2">
       <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
@@ -1101,7 +1101,7 @@
       <c r="AB4" s="14"/>
       <c r="AC4" s="14"/>
     </row>
-    <row r="5" spans="1:29" ht="12.75">
+    <row r="5" spans="1:29" ht="13.2">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -1154,7 +1154,7 @@
       <c r="AB5" s="14"/>
       <c r="AC5" s="14"/>
     </row>
-    <row r="6" spans="1:29" ht="12.75">
+    <row r="6" spans="1:29" ht="13.2">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="7">
@@ -1206,7 +1206,7 @@
       <c r="AB6" s="14"/>
       <c r="AC6" s="14"/>
     </row>
-    <row r="7" spans="1:29" ht="12.75">
+    <row r="7" spans="1:29" ht="13.2">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="7">
@@ -1258,7 +1258,7 @@
       <c r="AB7" s="14"/>
       <c r="AC7" s="14"/>
     </row>
-    <row r="8" spans="1:29" ht="12.75">
+    <row r="8" spans="1:29" ht="13.2">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="7">
@@ -1310,7 +1310,7 @@
       <c r="AB8" s="14"/>
       <c r="AC8" s="14"/>
     </row>
-    <row r="9" spans="1:29" ht="12.75">
+    <row r="9" spans="1:29" ht="13.2">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="7">
@@ -1362,7 +1362,7 @@
       <c r="AB9" s="14"/>
       <c r="AC9" s="14"/>
     </row>
-    <row r="10" spans="1:29" ht="12.75">
+    <row r="10" spans="1:29" ht="13.2">
       <c r="A10" s="5">
         <v>2</v>
       </c>
@@ -1418,7 +1418,7 @@
       <c r="AB10" s="14"/>
       <c r="AC10" s="14"/>
     </row>
-    <row r="11" spans="1:29" ht="12.75">
+    <row r="11" spans="1:29" ht="13.2">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="7">
@@ -1470,7 +1470,7 @@
       <c r="AB11" s="14"/>
       <c r="AC11" s="14"/>
     </row>
-    <row r="12" spans="1:29" ht="12.75">
+    <row r="12" spans="1:29" ht="13.2">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="7">
@@ -1517,7 +1517,7 @@
       <c r="AB12" s="14"/>
       <c r="AC12" s="14"/>
     </row>
-    <row r="13" spans="1:29" ht="12.75">
+    <row r="13" spans="1:29" ht="13.2">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="7">
@@ -1564,7 +1564,7 @@
       <c r="AB13" s="14"/>
       <c r="AC13" s="14"/>
     </row>
-    <row r="14" spans="1:29" ht="12.75">
+    <row r="14" spans="1:29" ht="13.2">
       <c r="A14" s="5">
         <v>3</v>
       </c>
@@ -1615,7 +1615,7 @@
       <c r="AB14" s="14"/>
       <c r="AC14" s="14"/>
     </row>
-    <row r="15" spans="1:29" ht="12.75">
+    <row r="15" spans="1:29" ht="13.2">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="7">
@@ -1662,7 +1662,7 @@
       <c r="AB15" s="14"/>
       <c r="AC15" s="14"/>
     </row>
-    <row r="16" spans="1:29" ht="12.75">
+    <row r="16" spans="1:29" ht="13.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="7">
@@ -1707,7 +1707,7 @@
       <c r="AB16" s="14"/>
       <c r="AC16" s="14"/>
     </row>
-    <row r="17" spans="1:29" ht="12.75">
+    <row r="17" spans="1:29" ht="13.2">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="7">
@@ -1752,7 +1752,7 @@
       <c r="AB17" s="14"/>
       <c r="AC17" s="14"/>
     </row>
-    <row r="18" spans="1:29" ht="12.75">
+    <row r="18" spans="1:29" ht="13.2">
       <c r="A18" s="5">
         <v>4</v>
       </c>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="K18" s="15"/>
       <c r="L18" s="16" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="O18" s="14"/>
       <c r="P18" s="14"/>
@@ -1801,7 +1801,7 @@
       <c r="AB18" s="14"/>
       <c r="AC18" s="14"/>
     </row>
-    <row r="19" spans="1:29" ht="12.75">
+    <row r="19" spans="1:29" ht="13.2">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="7">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="K19" s="15"/>
       <c r="L19" s="16" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
@@ -1846,7 +1846,7 @@
       <c r="AB19" s="14"/>
       <c r="AC19" s="14"/>
     </row>
-    <row r="20" spans="1:29" ht="12.75">
+    <row r="20" spans="1:29" ht="13.2">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="7">
@@ -1891,7 +1891,7 @@
       <c r="AB20" s="14"/>
       <c r="AC20" s="14"/>
     </row>
-    <row r="21" spans="1:29" ht="12.75">
+    <row r="21" spans="1:29" ht="13.2">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="7">
@@ -1936,7 +1936,7 @@
       <c r="AB21" s="14"/>
       <c r="AC21" s="14"/>
     </row>
-    <row r="22" spans="1:29" ht="12.75">
+    <row r="22" spans="1:29" ht="13.2">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="7">
@@ -1981,7 +1981,7 @@
       <c r="AB22" s="14"/>
       <c r="AC22" s="14"/>
     </row>
-    <row r="23" spans="1:29" ht="12.75">
+    <row r="23" spans="1:29" ht="13.2">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="7">
@@ -2026,7 +2026,7 @@
       <c r="AB23" s="14"/>
       <c r="AC23" s="14"/>
     </row>
-    <row r="24" spans="1:29" ht="12.75">
+    <row r="24" spans="1:29" ht="13.2">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="7">
@@ -2071,7 +2071,7 @@
       <c r="AB24" s="14"/>
       <c r="AC24" s="14"/>
     </row>
-    <row r="25" spans="1:29" ht="12.75">
+    <row r="25" spans="1:29" ht="13.2">
       <c r="A25" s="5">
         <v>5</v>
       </c>
@@ -2120,7 +2120,7 @@
       <c r="AB25" s="14"/>
       <c r="AC25" s="14"/>
     </row>
-    <row r="26" spans="1:29" ht="12.75">
+    <row r="26" spans="1:29" ht="13.2">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="7">
@@ -2165,7 +2165,7 @@
       <c r="AB26" s="14"/>
       <c r="AC26" s="14"/>
     </row>
-    <row r="27" spans="1:29" ht="12.75">
+    <row r="27" spans="1:29" ht="13.2">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="7">
@@ -2210,7 +2210,7 @@
       <c r="AB27" s="14"/>
       <c r="AC27" s="14"/>
     </row>
-    <row r="28" spans="1:29" ht="12.75">
+    <row r="28" spans="1:29" ht="13.2">
       <c r="A28" s="5">
         <v>6</v>
       </c>
@@ -2259,7 +2259,7 @@
       <c r="AB28" s="14"/>
       <c r="AC28" s="14"/>
     </row>
-    <row r="29" spans="1:29" ht="12.75">
+    <row r="29" spans="1:29" ht="13.2">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="7">
@@ -2304,7 +2304,7 @@
       <c r="AB29" s="14"/>
       <c r="AC29" s="14"/>
     </row>
-    <row r="30" spans="1:29" ht="12.75">
+    <row r="30" spans="1:29" ht="13.2">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="7">
@@ -2349,7 +2349,7 @@
       <c r="AB30" s="14"/>
       <c r="AC30" s="14"/>
     </row>
-    <row r="31" spans="1:29" ht="12.75">
+    <row r="31" spans="1:29" ht="13.2">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="7">
@@ -2394,7 +2394,7 @@
       <c r="AB31" s="14"/>
       <c r="AC31" s="14"/>
     </row>
-    <row r="32" spans="1:29" ht="12.75">
+    <row r="32" spans="1:29" ht="13.2">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="7">
@@ -2439,7 +2439,7 @@
       <c r="AB32" s="14"/>
       <c r="AC32" s="14"/>
     </row>
-    <row r="33" spans="1:29" ht="12.75">
+    <row r="33" spans="1:29" ht="13.2">
       <c r="A33" s="5">
         <v>7</v>
       </c>
@@ -2488,7 +2488,7 @@
       <c r="AB33" s="14"/>
       <c r="AC33" s="14"/>
     </row>
-    <row r="34" spans="1:29" ht="12.75">
+    <row r="34" spans="1:29" ht="13.2">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="7">
@@ -2533,7 +2533,7 @@
       <c r="AB34" s="14"/>
       <c r="AC34" s="14"/>
     </row>
-    <row r="35" spans="1:29" ht="12.75">
+    <row r="35" spans="1:29" ht="13.2">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="7">
@@ -2578,7 +2578,7 @@
       <c r="AB35" s="14"/>
       <c r="AC35" s="14"/>
     </row>
-    <row r="36" spans="1:29" ht="12.75">
+    <row r="36" spans="1:29" ht="13.2">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="7">
